--- a/microservices-poc.xlsx
+++ b/microservices-poc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stnaraya.I-FLEX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\metro-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBD84413-75E3-4C42-90D8-9B578408ABFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tech Spec" sheetId="2" r:id="rId1"/>
     <sheet name="Phase 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Database setup" sheetId="3" r:id="rId3"/>
-    <sheet name="Software &amp; repo" sheetId="4" r:id="rId4"/>
+    <sheet name="Software &amp; repo" sheetId="4" r:id="rId3"/>
+    <sheet name="Database setup" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>java 1.8</t>
   </si>
@@ -128,16 +129,31 @@
     <t>open command prompt and go to location "D:\mysql-8.0.11-winx64\bin"</t>
   </si>
   <si>
-    <t>run command "mysqld --initialize"</t>
-  </si>
-  <si>
     <t>run command "mysqld --console"</t>
+  </si>
+  <si>
+    <t>run command "mysqld --initialize root"</t>
+  </si>
+  <si>
+    <t>Now go to metro-services source code folder</t>
+  </si>
+  <si>
+    <t>run command " D:\mysql-8.0.11-winx64\bin\mysql &lt; master.sql      "</t>
+  </si>
+  <si>
+    <t>This will create the required database and tables</t>
+  </si>
+  <si>
+    <t>Check out to a any convenient folder</t>
+  </si>
+  <si>
+    <t>Open new command promt to this folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -566,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -664,11 +680,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,54 +748,35 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/microservices-poc.xlsx
+++ b/microservices-poc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\metro-service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\metro-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBD84413-75E3-4C42-90D8-9B578408ABFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1663587D-DAF2-4CAA-8C3E-3EF8CBDF58AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tech Spec" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>java 1.8</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Open new command promt to this folder</t>
+  </si>
+  <si>
+    <t>Config git repo</t>
+  </si>
+  <si>
+    <t>https://github.com/microservice-poc/ms-config</t>
   </si>
 </sst>
 </file>
@@ -681,10 +687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,10 +720,21 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{72342F92-AA25-4EC7-A714-E91B0CDA6D28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -727,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
